--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="20" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="7440" yWindow="10800" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">商城功能 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{cid,cname,info,pic_url},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,6 +473,9 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="10800" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m:Shop, a:getCategories ,platform,v,place,token,alias,appcode,width,height,network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">http://115.28.225.137/shop?m=Shop&amp;a=getCategories&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=ec5333687e2d82596a2fd2f49a3db8b1&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2 
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{cid,cname,info,pic_url},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/category?assistant=getCategories&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=ec5333687e2d82596a2fd2f49a3db8b1&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:"",data:[{cid,cname,info,pic_url},]},response_status:"",msg:""}</t>
+    <t>assistant:"getCategories" ,platform,v,place,token,alias,appcode,width,height,network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +69,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -92,8 +110,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -101,8 +121,10 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -434,7 +456,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -458,28 +480,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">商城功能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获得商城列表 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +43,43 @@
   </si>
   <si>
     <t>assistant:"getCategories" ,platform,v,place,token,alias,appcode,width,height,network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分类功能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得分类列表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得分类产品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:getProductsByCategory,cid,orderby,page,limit,platform,v,place,token,alias,appcode,width,height,network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/category?assistant=getProductsByCategory&amp;cid=4&amp;orderby=sortasc&amp;page=1&amp;limit=10&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=f48efe7c5683558f210394fb18845a3a&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid,title,cid,pic_url,org_price,price,volume,recentvolume},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,50 +482,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
   </si>
   <si>
     <t>response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:"",data:[{cid,cname,info,pic_url},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assistant:"getCategories" ,platform,v,place,token,alias,appcode,width,height,network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">分类功能 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +51,6 @@
   </si>
   <si>
     <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant:getProductsByCategory,cid,orderby,page,limit,platform,v,place,token,alias,appcode,width,height,network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,7 +67,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{info:{extra:"",data:[{pid,title,cid,pic_url,org_price,price,volume,recentvolume},]},response_status:"",msg:""}</t>
+    <t>商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getCategories" ,platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:getProductsByCategory,cid(分类id),orderby(排序),page(页),limit(每页个数),platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getProductDetail" ,pid(商品id),platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/product?assistant=getProductDetail&amp;pid=100&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=f48efe7c5683558f210394fb18845a3a&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{cid(分类id),cname(分类名称),info(分类介绍),pic_url(分类图标)},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid(商品id),title(商品名称),cid(分类id),pic_url(商品图片),org_price(原价),price(现价),volume(销量),recentvolume(月销量)},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:{pid(商品id),cid(分类id),title(商品名称),volume(销量),recentvolume(月销量),org_price(原价),price(现价),state(状态:1有货2无货),stamper(?),gallery:[jpg,](商品图片数组),attr_list:[{attr_id(属性id),goods_attr_id(商品属性id),attr_name(属性名称),attr_value(属性介绍),attr_price(属性价格),attr_type(属性类型:1可选属性2基本属性)},](商品属性数组)}},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,9 +173,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -482,34 +514,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="112.6640625" customWidth="1"/>
+    <col min="2" max="2" width="134.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32" customHeight="1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
@@ -517,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -525,36 +557,65 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" t="s">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,85 @@
   </si>
   <si>
     <t>{info:{extra:"",data:{pid(商品id),cid(分类id),title(商品名称),volume(销量),recentvolume(月销量),org_price(原价),price(现价),state(状态:1有货2无货),stamper(?),gallery:[jpg,](商品图片数组),attr_list:[{attr_id(属性id),goods_attr_id(商品属性id),attr_name(属性名称),attr_value(属性介绍),attr_price(属性价格),attr_type(属性类型:1可选属性2基本属性)},](商品属性数组)}},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getPaymentList" ,platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{payment_way_id(支付方式id),payment_way_name(支付方式名称),payment_way_desp(支付方式补充)},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/payment?assistant=getPaymentList&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=ec5333687e2d82596a2fd2f49a3db8b1&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到购买者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getPaymentConsignee" ,platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/payment?assistant=getPaymentConsignee&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=ec5333687e2d82596a2fd2f49a3db8b1&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:{consignee(购买者姓名),address(购买者地址),mobile(购买者电话),baseaddr(购买者省市区编号)}},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到运费信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getPromotionDetail" ,totalprice(总价),payment_way_id(支付方式id),platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/payment?assistant=getPromotionDetail&amp;totalprice=1001.00&amp;payment_way_id=1&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=ec5333687e2d82596a2fd2f49a3db8b1&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:{promotion_totalprice(付款总价),discount_amount(优惠价格),orderprice(订单总价),shipping_fee(运费),shipping_fee_reduce(运费优惠),goods_amount_reduce(商品优惠)}},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,6 +697,98 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="16020" yWindow="0" windowWidth="38400" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,34 @@
   </si>
   <si>
     <t>{info:{extra:"",data:{promotion_totalprice(付款总价),discount_amount(优惠价格),orderprice(订单总价),shipping_fee(运费),shipping_fee_reduce(运费优惠),goods_amount_reduce(商品优惠)}},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{city(城市编号),consignee(收件人),mobile(手机号),memo(留言),province(省编号),ticket_id(账号id),token(应用唯一id),address(地址),shipping_fee(运费),promotion_totalprice(总价),area(区域编号),payment_way_id(支付方式id),productlist:[{title(标题),price(价格),pid(商品id),quantity(数量),attr_list:[{goods_attr_id(商品属性id),attr_price(属性价格)}]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/order?assistant=neworder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"order_id"(订单号),"orderprice"(订单总价),"create_time"(订单时间),"order_status"(订单状态:0 未确认 1 确认),"payment_way_id"(付款方式id),"payment_status"(付款状态 0 未付款 1 已付款)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -789,6 +817,35 @@
         <v>40</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="0" windowWidth="38400" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,38 @@
   </si>
   <si>
     <t>{"order_id"(订单号),"orderprice"(订单总价),"create_time"(订单时间),"order_status"(订单状态:0 未确认 1 确认),"payment_way_id"(付款方式id),"payment_status"(付款状态 0 未付款 1 已付款)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到广告列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/shop?assistant=getAdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getAdList"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{adid(广告id),img_url(广告图片url),type(类型:1 商品 2 活动),linkto(连接url,目前没什么用,等有活动了显示活动说明网页),param:(参数){app_ad_in_subtype(广告子类型:1 通过关键词查找的商品列表 2 单个商品),keyword(关键词),pid(商品id)}},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,9 +322,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -621,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -846,6 +878,40 @@
         <v>47</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,34 @@
   </si>
   <si>
     <t>{info:{extra:"",data:[{adid(广告id),img_url(广告图片url),type(类型:1 商品 2 活动),linkto(连接url,目前没什么用,等有活动了显示活动说明网页),param:(参数){app_ad_in_subtype(广告子类型:1 通过关键词查找的商品列表 2 单个商品),keyword(关键词),pid(商品id)}},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getRecommend"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/shop?assistant=getRecommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,9 +350,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -653,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -912,6 +940,35 @@
         <v>55</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,34 @@
   </si>
   <si>
     <t>{info:{extra:"",data:[{title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到关键词商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/shop?assistant=keywordSearch&amp;keyword=百花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"keywordSearch",keyword:(要搜索的关键词)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid(商品id),cid(分类id),title(标题),org_price(原价),price:(现价),volume(总销量),recentvolume(最近销量),pic_url(图片url)}},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,9 +378,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -681,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -969,6 +997,35 @@
         <v>62</v>
       </c>
     </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,34 @@
   </si>
   <si>
     <t>{info:{extra:"",data:[{pid(商品id),cid(分类id),title(标题),org_price(原价),price:(现价),volume(总销量),recentvolume(最近销量),pic_url(图片url)}},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到商品数组属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getProductsDetail",pids(商品数组，以逗号分割)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/payment?assistant=getProductsDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid(商品id),title(商品title),price(商品价格),state(商品销售状态1有货0售完),cid(分类id),attr_list:(商品可选属性数组)[{attr_id(可选类型id),goods_attr_id(属性id),attr_name(属性名称),attr_value(属性说明),attr_price(属性价格),attr_type(属性类型1可选0基本)},]},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -820,65 +848,65 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
@@ -886,15 +914,15 @@
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
@@ -902,127 +930,156 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,50 @@
   </si>
   <si>
     <t>{info:{extra:"",data:[{pid(商品id),title(商品title),price(商品价格),state(商品销售状态1有货0售完),cid(分类id),attr_list:(商品可选属性数组)[{attr_id(可选类型id),goods_attr_id(属性id),attr_name(属性名称),attr_value(属性说明),attr_price(属性价格),attr_type(属性类型1可选0基本)},]},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到topic模块列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getTopicList"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/shop?assistant=getTopicList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{topicid(主题id),pic_url(主题图片url),title(主题标题),goods:(主题商品列表)[{pid(商品id),pic_url(商品图片)},]},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到某个主题模块商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getTopicProducts",topicid:(主题id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/shop?assistant=getTopicProducts&amp;topicid=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid(商品id),pic_url(商品图片url),title(商品标题),org_price(原价),price(现价),volume(总销量),recentvolume(最近销量)},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1083,6 +1127,64 @@
         <v>69</v>
       </c>
     </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得到推荐商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{info:{extra:"",data:[{title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]},response_status:"",msg:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>得到关键词商品列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{info:{extra:"",data:[{topicid(主题id),pic_url(主题图片url),title(主题标题),goods:(主题商品列表)[{pid(商品id),pic_url(商品图片)},]},]},response_status:"",msg:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>得到某个主题模块商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +364,18 @@
   </si>
   <si>
     <t>{info:{extra:"",data:[{pid(商品id),pic_url(商品图片url),title(商品标题),org_price(原价),price(现价),volume(总销量),recentvolume(最近销量)},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到推荐商品（去掉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:{title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:{topic:(模块列表)[{topicid(主题id),pic_url(主题图片url),title(主题标题),goods:(主题商品列表)[{pid(商品id),pic_url(商品图片)},]},],recommend:(推荐数据){title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]}},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,6 +417,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -440,7 +448,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -783,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -892,31 +901,31 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1070,119 +1079,119 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>56</v>
+      <c r="A40" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
         <v>65</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,18 +207,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{city(城市编号),consignee(收件人),mobile(手机号),memo(留言),province(省编号),ticket_id(账号id),token(应用唯一id),address(地址),shipping_fee(运费),promotion_totalprice(总价),area(区域编号),payment_way_id(支付方式id),productlist:[{title(标题),price(价格),pid(商品id),quantity(数量),attr_list:[{goods_attr_id(商品属性id),attr_price(属性价格)}]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://115.28.225.137:10080/order?assistant=neworder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"order_id"(订单号),"orderprice"(订单总价),"create_time"(订单时间),"order_status"(订单状态:0 未确认 1 确认),"payment_way_id"(付款方式id),"payment_status"(付款状态 0 未付款 1 已付款)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,6 +368,62 @@
   </si>
   <si>
     <t>{info:{extra:"",data:{topic:(模块列表)[{topicid(主题id),pic_url(主题图片url),title(主题标题),goods:(主题商品列表)[{pid(商品id),pic_url(商品图片)},]},],recommend:(推荐数据){title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]}},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交新订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_json={city(城市编号),consignee(收件人),mobile(手机号),memo(留言),province(省编号),ticket_id(账号id),token(应用唯一id),address(地址),shipping_fee(运费),promotion_totalprice(总价),area(区域编号),payment_way_id(支付方式id),productlist:[{title(标题),price(价格),pid(商品id),quantity(数量),attr_list:[{goods_attr_id(商品属性id),attr_price(属性价格)}]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:extra,data:{"order_id"(订单号),"orderprice"(订单总价),"create_time"(订单时间),"order_status"(订单状态:0 未确认 1 确认),"payment_way_id"(付款方式id),"payment_status"(付款状态 0 未付款 1 已付款),payment_name(付款方式描述)},response_status,msg}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getMyOrderDetail",order_id(订单id),ticket_id(注册id),token(设备id),注册id和设备id传一个就好，登陆时传注册id，未登录时传设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/order?assistant=getMyOrderDetail&amp;token=5a928f51b477a1162cf7c767b5a7dbdb&amp;order_id=f3b32c4db7a75635ba1387439f94c5cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":{},"data":{"order_id":"订单id","payment_status":(0 未付款 1 已付款),"shipping_status":(0 为发货 1已发货 2 已收货),"consignee":"收件人","address":"具体地址","city":"城市编号","province":"省份编号","area":"城区编号","mobile":"电话","promotion_totalprice":商品总价,"payment_way_id":付款方式id,"creat_time":"创建时间","goods_number":购买商品数量,"shipping_fee":运费,"memo":"留言","payment_name":"付款方式名称","goods_list":[{"goods_name":"商品标题","goods_number":"商品数量","goods_price":商品价格,"goods_attr":"属性描述","pic_url":"图片地址"}]}},"response_status":"success","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getMyOrderList",ticket_id:(注册id),token:(设备id)，当登陆时使用ticket_id,未登录时使用token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/order?assistant=getMyOrderList&amp;token=5a928f51b477a1162cf7c767b5a7dbdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":{},"data":[{"order_number":"订单id","orderprice":订单总价,"create_time":"创建时间","order_status":订单状态(0 未确认 1 已确认),"pay_status":(付款状态 0 未付款 1 已付款),"shipping_status":(发货状态 0 未发货 1 已发货 2 已收获),"payment_id":付款方式id,"payment_name":"付款方式名称","goods_number":商品数量,"pic_url":"图片地址"}]},"response_status":"success","msg":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -901,31 +949,31 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1020,178 +1068,243 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>48</v>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="A39" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>56</v>
+      <c r="A41" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" t="s">
-        <v>58</v>
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
+      <c r="A49" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>84</v>
+    </row>
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,61 @@
   </si>
   <si>
     <t>{"info":{"extra":{},"data":[{"order_number":"订单id","orderprice":订单总价,"create_time":"创建时间","order_status":订单状态(0 未确认 1 已确认),"pay_status":(付款状态 0 未付款 1 已付款),"shipping_status":(发货状态 0 未发货 1 已发货 2 已收获),"payment_id":付款方式id,"payment_name":"付款方式名称","goods_number":商品数量,"pic_url":"图片地址"}]},"response_status":"success","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆注册功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/reg?assistant=register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"register",nickname(昵称),phone(电话号码),password(md5加密过的密码),token(设备唯一id),示例数据格式:token=b&amp;nickname=b&amp;password=b&amp;phone=13661633125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"login",phone(电话号码),password(md5加密的密码),示例数据格式:password=b&amp;phone=13661633124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/login?assistant=login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":null,"data":{"ticket_id":"注册id","phone":"电话号码","nickname":"昵称","sex_type":(性别类型 0 无 1 男 2 女),"account_coin":金币数量,"avatar":"用户默认头像地址"}},"response_status":"success","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/account?assistant=getAccountInfoByUser&amp;ticket_id=33b5c4c273f7fbf390a9163232c160e2</t>
+  </si>
+  <si>
+    <t>assistant:"getAccountInfoByUser",ticket_id(注册id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":null,"data":{"ticket_id":"注册id","nickname":"昵称","sex_type":(性别类型 0 无 1 男 2 女),"account_coin":金币数量,"avatar":"用户默认头像地址"}},"response_status":"success","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":null,"data":{"phone":"电话号码","nickname":"昵称","sex_type":(性别类型 0 无 1 男 2 女),"account_coin":金币数量,"avatar":"用户头像默认地址"}},"response_status":"success","msg":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,10 +521,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -496,7 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,6 +573,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -838,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -850,13 +923,13 @@
     <col min="2" max="2" width="134.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="23">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="19">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -884,8 +957,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="19">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -913,8 +986,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="19">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -942,13 +1015,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="23">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="19">
+      <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -976,8 +1049,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="19">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1005,8 +1078,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" ht="19">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1034,8 +1107,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="19">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1063,13 +1136,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="23">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="19">
+      <c r="A32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1097,8 +1170,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="19">
+      <c r="A36" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="1"/>
@@ -1127,8 +1200,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" ht="19">
+      <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="1"/>
@@ -1157,13 +1230,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="23">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="19">
+      <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1191,8 +1264,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" ht="19">
+      <c r="A49" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1220,8 +1293,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="19">
+      <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1249,8 +1322,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="19">
+      <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1278,8 +1351,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" ht="19">
+      <c r="A61" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1305,6 +1378,98 @@
       </c>
       <c r="B64" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="23">
+      <c r="A65" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19">
+      <c r="A66" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19">
+      <c r="A70" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19">
+      <c r="A74" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,38 @@
   </si>
   <si>
     <t>{"info":{"extra":null,"data":{"phone":"电话号码","nickname":"昵称","sex_type":(性别类型 0 无 1 男 2 女),"account_coin":金币数量,"avatar":"用户头像默认地址"}},"response_status":"success","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getProductIntroHtml",pid(商品id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/product?assistant=getProductIntroHtml&amp;pid=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info: {extra: null,data: {content: (html内容)}},response_status: "true",msg: ""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,9 +612,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -911,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -986,489 +1018,525 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:2" ht="23">
+      <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="23">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" ht="19">
+      <c r="A15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19">
-      <c r="A15" s="4" t="s">
+    <row r="20" spans="1:2" ht="19">
+      <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" t="s">
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19">
-      <c r="A19" s="4" t="s">
+    <row r="24" spans="1:2" ht="19">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" t="s">
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
-      <c r="A21" t="s">
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="19">
-      <c r="A23" s="4" t="s">
+    <row r="28" spans="1:2" ht="19">
+      <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" t="s">
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="19">
-      <c r="A27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="23">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19">
       <c r="A32" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="23">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19">
-      <c r="A36" s="4" t="s">
+    <row r="41" spans="1:2" ht="19">
+      <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="1" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="1" t="s">
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19">
-      <c r="A40" s="5" t="s">
+    <row r="45" spans="1:2" ht="19">
+      <c r="A45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="1" t="s">
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="23">
-      <c r="A44" s="3" t="s">
+    <row r="49" spans="1:2" ht="23">
+      <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19">
-      <c r="A45" s="4" t="s">
+    <row r="50" spans="1:2" ht="19">
+      <c r="A50" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19">
-      <c r="A49" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="19">
-      <c r="A53" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19">
+      <c r="A54" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19">
-      <c r="A57" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19">
+      <c r="A58" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="19">
-      <c r="A61" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19">
+      <c r="A62" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="23">
-      <c r="A65" s="3" t="s">
-        <v>100</v>
+      <c r="B65" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
       <c r="A66" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="23">
+      <c r="A70" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19">
+      <c r="A71" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30">
-      <c r="A67" s="1" t="s">
+    <row r="72" spans="1:2" ht="30">
+      <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30">
-      <c r="A69" s="1" t="s">
+    <row r="74" spans="1:2" ht="30">
+      <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19">
-      <c r="A70" s="5" t="s">
+    <row r="75" spans="1:2" ht="19">
+      <c r="A75" s="5" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="19">
-      <c r="A74" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30">
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19">
+      <c r="A79" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="1" t="s">
+    <row r="82" spans="1:2" ht="30">
+      <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>113</v>
       </c>
     </row>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,34 @@
   </si>
   <si>
     <t>{info: {extra: null,data: {content: (html内容)}},response_status: "true",msg: ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"delMyOrder",order_id(订单id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/order?assistant=delMyOrder&amp;order_id=34da4097c2473f8aefed92dd6423834c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info: {extra: null,data: null},response_status: "true",msg: "成功取消订单"};</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1298,130 +1326,131 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="23">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" ht="19">
+      <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23">
+      <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19">
-      <c r="A50" s="4" t="s">
+    <row r="54" spans="1:2" ht="19">
+      <c r="A54" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="19">
-      <c r="A54" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19">
-      <c r="A58" s="4" t="s">
-        <v>59</v>
+      <c r="A58" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="19">
       <c r="A62" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="45">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
       <c r="A66" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1429,7 +1458,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1437,62 +1466,62 @@
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19">
+      <c r="A70" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="23">
-      <c r="A70" s="3" t="s">
+    <row r="74" spans="1:2" ht="23">
+      <c r="A74" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19">
-      <c r="A71" s="4" t="s">
+    <row r="75" spans="1:2" ht="19">
+      <c r="A75" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30">
-      <c r="A72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30">
-      <c r="A74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="19">
-      <c r="A75" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="30">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1500,7 +1529,7 @@
         <v>102</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30">
@@ -1508,12 +1537,12 @@
         <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="19">
       <c r="A79" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1521,15 +1550,15 @@
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
@@ -1537,6 +1566,35 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19">
+      <c r="A83" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>113</v>
       </c>
     </row>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,34 @@
   </si>
   <si>
     <t>{info: {extra: null,data: null},response_status: "true",msg: "成功取消订单"};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"alipayto",post数据：order_id=(订单id)&amp;total_fee=(总价)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/ali?assistant=alipayto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:'',data:{alipay_submit_data:'支付宝数据'}},response_status:'true',msg:''}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,12 +647,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,11 +667,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -971,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1356,130 +1387,131 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="23">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:2" ht="19">
+      <c r="A53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="23">
+      <c r="A57" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19">
-      <c r="A54" s="4" t="s">
+    <row r="58" spans="1:2" ht="19">
+      <c r="A58" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="19">
-      <c r="A58" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="19">
-      <c r="A62" s="4" t="s">
-        <v>59</v>
+      <c r="A62" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
       <c r="A66" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="45">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1487,7 +1519,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1495,62 +1527,62 @@
         <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19">
+      <c r="A74" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="23">
-      <c r="A74" s="3" t="s">
+    <row r="78" spans="1:2" ht="23">
+      <c r="A78" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19">
-      <c r="A75" s="4" t="s">
+    <row r="79" spans="1:2" ht="19">
+      <c r="A79" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30">
-      <c r="A76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="19">
-      <c r="A79" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="30">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1558,7 +1590,7 @@
         <v>102</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
@@ -1566,12 +1598,12 @@
         <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="19">
       <c r="A83" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1579,15 +1611,15 @@
         <v>90</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
@@ -1595,11 +1627,43 @@
         <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19">
+      <c r="A87" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B55" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -558,15 +558,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assistant:"alipayto",post数据：order_id=(订单id)&amp;total_fee=(总价)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://115.28.225.137:10080/ali?assistant=alipayto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{info:{extra:'',data:{alipay_submit_data:'支付宝数据'}},response_status:'true',msg:''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"alipayto",post数据：order_id=(订单id)&amp;order_price=(总价)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1398,7 +1398,7 @@
         <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>131</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="23">

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,46 @@
   </si>
   <si>
     <t>assistant:"alipayto",post数据：order_id=(订单id)&amp;order_price=(总价)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到促销信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getPromotionList"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/shop?assistant=getPromotionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":null,"data":{"promotion_ico":"促销图标","promotion":"促销内容","service_ico":"服务图标","service":"服务内容"}},"response_status":"true","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help网页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +693,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -668,12 +708,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1002,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1567,51 +1610,52 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="23">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:2" ht="19">
+      <c r="A78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="23">
+      <c r="A82" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19">
-      <c r="A79" s="4" t="s">
+    <row r="83" spans="1:2" ht="19">
+      <c r="A83" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="19">
-      <c r="A83" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="30">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1619,7 +1663,7 @@
         <v>102</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
@@ -1627,12 +1671,12 @@
         <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19">
       <c r="A87" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1640,15 +1684,15 @@
         <v>90</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
@@ -1656,13 +1700,71 @@
         <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19">
+      <c r="A91" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="23">
+      <c r="A95" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B55" r:id="rId1"/>
+    <hyperlink ref="B97" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="151">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,14 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://115.28.225.137:10080/ali?assistant=alipayto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:'',data:{alipay_submit_data:'支付宝数据'}},response_status:'true',msg:''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assistant:"alipayto",post数据：order_id=(订单id)&amp;order_price=(总价)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +599,35 @@
   </si>
   <si>
     <t>help网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到订单快递查询url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getexpress",order_id=(订单id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/?\
+m=order&amp;a=getexpress&amp;order_id=0518115907700268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":{},"data":{"express_url":"http://m.kuaidi100.com/index_all.html?type=guotongkuaidi&amp;postid=ZX00000212749057"}},"response_status":"true","msg":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1441,149 +1462,146 @@
         <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
       <c r="A55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="23">
-      <c r="A57" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19">
+      <c r="A57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="23">
+      <c r="A61" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19">
-      <c r="A58" s="4" t="s">
+    <row r="62" spans="1:2" ht="19">
+      <c r="A62" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="45">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="19">
-      <c r="A62" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
-      <c r="A66" s="4" t="s">
-        <v>59</v>
+      <c r="A66" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19">
       <c r="A70" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="45">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="19">
       <c r="A74" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1591,7 +1609,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1599,92 +1617,92 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19">
+      <c r="A78" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
-      <c r="A78" s="5" t="s">
+    <row r="82" spans="1:2" ht="19">
+      <c r="A82" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="B84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="23">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:2" ht="23">
+      <c r="A86" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19">
-      <c r="A83" s="4" t="s">
+    <row r="87" spans="1:2" ht="19">
+      <c r="A87" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="19">
-      <c r="A87" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" ht="30">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1692,7 +1710,7 @@
         <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
@@ -1700,12 +1718,12 @@
         <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="19">
       <c r="A91" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1713,15 +1731,15 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30">
@@ -1729,42 +1747,70 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="23">
-      <c r="A95" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" s="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19">
+      <c r="A95" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30">
       <c r="A98" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="23">
+      <c r="A99" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1"/>
-    <hyperlink ref="B97" r:id="rId2"/>
+    <hyperlink ref="B101" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -178,19 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assistant:"getPromotionDetail" ,totalprice(总价),payment_way_id(支付方式id),platform(手机平台),v(版本),place(投放市场),token(唯一id),alias(程序简称),appcode(程序标号),width(宽度),height(高度),network(网络环境)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://115.28.225.137:10080/payment?assistant=getPromotionDetail&amp;totalprice=1001.00&amp;payment_way_id=1&amp;platform=iphone&amp;v=5.1.0&amp;place=appstore&amp;token=ec5333687e2d82596a2fd2f49a3db8b1&amp;alias=xjb&amp;appcode=1&amp;width=640&amp;height=960&amp;network=2 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:"",data:{promotion_totalprice(付款总价),discount_amount(优惠价格),orderprice(订单总价),shipping_fee(运费),shipping_fee_reduce(运费优惠),goods_amount_reduce(商品优惠)}},response_status:"",msg:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +615,21 @@
   </si>
   <si>
     <t>{"info":{"extra":{},"data":{"express_url":"http://m.kuaidi100.com/index_all.html?type=guotongkuaidi&amp;postid=ZX00000212749057"}},"response_status":"true","msg":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getPaymentDetail" ,price(总价),payment_way_id(支付方式id)，province_code（省份id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://115.28.225.137:10080/?\
+m=payment&amp;a=getPaymentDetail&amp;price=99.00&amp;province_code=21&amp;payment_way_id=2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"info":{"extra":"","data":{"product_total_price":99,"discount_amount":0,"price":109,"transport_price":10,"transport_price_reduce":0,"product_price_reduce":0}},"response_status":"true","msg":""}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1143,7 +1145,7 @@
     </row>
     <row r="10" spans="1:2" ht="23">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1"/>
     </row>
@@ -1178,32 +1180,32 @@
     </row>
     <row r="15" spans="1:2" ht="19">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23">
@@ -1213,31 +1215,31 @@
     </row>
     <row r="20" spans="1:2" ht="19">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19">
@@ -1303,12 +1305,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
@@ -1316,495 +1318,495 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="23">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="19">
       <c r="A37" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19">
       <c r="A41" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
       <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19">
       <c r="A45" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19">
       <c r="A49" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
         <v>124</v>
-      </c>
-      <c r="B51" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19">
       <c r="A53" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19">
       <c r="A57" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" ht="23">
       <c r="A61" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="19">
       <c r="A62" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
       <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
       <c r="A66" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
         <v>55</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19">
       <c r="A70" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
       <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="19">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="45">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="19">
       <c r="A78" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19">
       <c r="A82" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
         <v>136</v>
-      </c>
-      <c r="B84" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
       <c r="A85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="23">
       <c r="A86" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="19">
       <c r="A87" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="19">
       <c r="A91" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19">
       <c r="A95" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="23">
       <c r="A99" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>得到关键词商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,15 +246,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assistant:"getRecommend"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://115.28.225.137:10080/shop?assistant=getRecommend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到关键词商品列表</t>
+    <t>http://115.28.225.137:10080/shop?assistant=keywordSearch&amp;keyword=百花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"keywordSearch",keyword:(要搜索的关键词)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid(商品id),cid(分类id),title(标题),org_price(原价),price:(现价),volume(总销量),recentvolume(最近销量),pic_url(图片url)}},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到商品数组属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,6 +266,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>url(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant:"getProductsDetail",pids(商品数组，以逗号分割)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://115.28.225.137:10080/payment?assistant=getProductsDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info:{extra:"",data:[{pid(商品id),title(商品title),price(商品价格),state(商品销售状态1有货0售完),cid(分类id),attr_list:(商品可选属性数组)[{attr_id(可选类型id),goods_attr_id(属性id),attr_name(属性名称),attr_value(属性说明),attr_price(属性价格),attr_type(属性类型1可选0基本)},]},]},response_status:"",msg:""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到topic模块列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,62 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://115.28.225.137:10080/shop?assistant=keywordSearch&amp;keyword=百花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant:"keywordSearch",keyword:(要搜索的关键词)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:"",data:[{pid(商品id),cid(分类id),title(标题),org_price(原价),price:(现价),volume(总销量),recentvolume(最近销量),pic_url(图片url)}},]},response_status:"",msg:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到商品数组属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url(post)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant:"getProductsDetail",pids(商品数组，以逗号分割)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://115.28.225.137:10080/payment?assistant=getProductsDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:"",data:[{pid(商品id),title(商品title),price(商品价格),state(商品销售状态1有货0售完),cid(分类id),attr_list:(商品可选属性数组)[{attr_id(可选类型id),goods_attr_id(属性id),attr_name(属性名称),attr_value(属性说明),attr_price(属性价格),attr_type(属性类型1可选0基本)},]},]},response_status:"",msg:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到topic模块列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assistant:"getTopicList"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,19 +318,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://115.28.225.137:10080/shop?assistant=getTopicProducts&amp;topicid=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{info:{extra:"",data:[{pid(商品id),pic_url(商品图片url),title(商品标题),org_price(原价),price(现价),volume(总销量),recentvolume(最近销量)},]},response_status:"",msg:""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到推荐商品（去掉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info:{extra:"",data:{title(推荐标题),keyword(推荐关键字),topthree:(前三个推荐商品数组)[{pid(商品id),pic_url(商品图片url)},]},response_status:"",msg:""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,6 +598,77 @@
   <si>
     <t xml:space="preserve">{"info":{"extra":"","data":{"product_total_price":99,"discount_amount":0,"price":109,"transport_price":10,"transport_price_reduce":0,"product_price_reduce":0}},"response_status":"true","msg":""}
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到推荐商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:"getRecommandProductListv",product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://114.215.129.162:10080/?m=shop&amp;a=getRecommandProductList&amp;product_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "info": {
+        "extra": "",
+        "data": [
+            {
+                "product_id": "1005",
+                "name": "雷霆 活塞X-9飞机杯自动抽插运动伸缩自慰器【新品尝鲜】",
+                "price": "198.00",
+                "picture": "http://img01.taobaocdn.com/imgextra/i1/468359490/TB2aWvXXVXXXXX0XpXXXXXXXXXX-468359490.jpg"
+            },
+        ]
+    },
+    "response_status": "true",
+    "msg": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到商品评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:"getProductReviewList",product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://114.215.129.162:10080/?m=shop&amp;a=getProductReviewList&amp;product_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "info": {
+        "extra": "",
+        "data": [
+            {
+                "name": "s***y",
+                "content": "很不错，来了一发。",
+                "create_time": "1398491819"
+            }
+        ]
+    },
+    "response_status": "true",
+    "msg": ""
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -685,13 +724,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -716,7 +748,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,17 +761,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1068,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1145,7 +1176,7 @@
     </row>
     <row r="10" spans="1:2" ht="23">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1"/>
     </row>
@@ -1180,32 +1211,32 @@
     </row>
     <row r="15" spans="1:2" ht="19">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23">
@@ -1215,31 +1246,31 @@
     </row>
     <row r="20" spans="1:2" ht="19">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19">
@@ -1310,7 +1341,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
@@ -1318,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
@@ -1326,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="23">
@@ -1336,7 +1367,7 @@
     </row>
     <row r="37" spans="1:2" ht="19">
       <c r="A37" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
@@ -1344,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1360,152 +1391,152 @@
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19">
       <c r="A41" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="19">
       <c r="A45" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19">
       <c r="A49" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19">
       <c r="A53" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19">
       <c r="A57" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B60" s="1"/>
     </row>
@@ -1544,21 +1575,21 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
-      <c r="A66" s="6" t="s">
-        <v>80</v>
+      <c r="A66" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
         <v>55</v>
@@ -1566,253 +1597,282 @@
     </row>
     <row r="69" spans="1:2" ht="30">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19">
       <c r="A70" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
+        <v>67</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="19">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="45">
+        <v>67</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="30">
       <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="78" spans="1:2" ht="19">
-      <c r="A78" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>71</v>
+      <c r="A79" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>78</v>
+      <c r="A80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" t="s">
-        <v>73</v>
+      <c r="A81" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19">
       <c r="A82" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30">
+        <v>145</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="225">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="23">
-      <c r="A86" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="19">
-      <c r="A87" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19">
+      <c r="A86" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="210">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="23">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="91" spans="1:2" ht="19">
-      <c r="A91" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
       <c r="A92" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30">
       <c r="A94" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19">
       <c r="A95" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="23">
-      <c r="A99" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" s="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19">
+      <c r="A99" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30">
       <c r="A102" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="23">
+      <c r="A103" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B101" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,47 @@
     "response_status": "true",
     "msg": ""
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m:common a:about vn:版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://114.215.129.162:10080/?m=common&amp;a=about&amp;vn=1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsevalue = {
+          info:{
+              extra:{},
+              data:{
+                  content:html内容
+              }
+          },
+          response_status:'true',
+          msg:''
+      }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +808,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1099,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1867,6 +1908,40 @@
       </c>
       <c r="B106" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="23">
+      <c r="A107" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19">
+      <c r="A108" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="150">
+      <c r="A111" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,6 +711,33 @@
           msg:''
       }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到搜索关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:getKeywordList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:10080/?m=shop&amp;a=getKeywordList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"info":{"extra":null,"data":["延时","震动棒","飞机杯","跳蛋","避孕套","制服诱惑","新品尝鲜","LELO","挑逗必备","AV棒"]},"response_status":"true","msg":""}</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1790,51 +1817,52 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="23">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:2" ht="19">
+      <c r="A90" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="23">
+      <c r="A94" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19">
-      <c r="A91" s="4" t="s">
+    <row r="95" spans="1:2" ht="19">
+      <c r="A95" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30">
-      <c r="A94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="19">
-      <c r="A95" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="30">
       <c r="A96" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1842,7 +1870,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
@@ -1850,12 +1878,12 @@
         <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="19">
       <c r="A99" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1863,15 +1891,15 @@
         <v>79</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30">
@@ -1879,75 +1907,104 @@
         <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="23">
-      <c r="A103" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19">
+      <c r="A103" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30">
       <c r="A106" s="1" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="23">
       <c r="A107" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="19">
-      <c r="A108" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" t="s">
-        <v>157</v>
+        <v>125</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="23">
+      <c r="A111" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19">
+      <c r="A112" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B114" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="150">
-      <c r="A111" s="1" t="s">
+    <row r="115" spans="1:2" ht="150">
+      <c r="A115" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B109" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/今日头牌网络协议.xlsx
+++ b/今日头牌网络协议.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,10 +462,6 @@
   </si>
   <si>
     <t>http://115.28.225.137:10080/product?assistant=getProductIntroHtml&amp;pid=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{info: {extra: null,data: {content: (html内容)}},response_status: "true",msg: ""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,6 +734,38 @@
   </si>
   <si>
     <t>{"info":{"extra":null,"data":["延时","震动棒","飞机杯","跳蛋","避孕套","制服诱惑","新品尝鲜","LELO","挑逗必备","AV棒"]},"response_status":"true","msg":""}</t>
+  </si>
+  <si>
+    <t>体验报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:getProductExperience ,product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://114.215.129.162:10080/?m=product&amp;a=getProductExperience&amp;product_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info: {extra: null,data: {content: (html内容)}},response_status: "true",msg: ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{info: {extra: null,data: {content: (html内容)}},response_status: "true",msg: ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1167,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1304,405 +1332,406 @@
         <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23">
-      <c r="A19" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19">
+      <c r="A19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23">
+      <c r="A23" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19">
-      <c r="A20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="19">
       <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19">
       <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="23">
-      <c r="A36" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19">
-      <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="23">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="19">
       <c r="A41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19">
+      <c r="A45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="19">
-      <c r="A45" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="30">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="75">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19">
       <c r="A49" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19">
       <c r="A53" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19">
       <c r="A57" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19">
+      <c r="A61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" ht="23">
-      <c r="A61" s="3" t="s">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="23">
+      <c r="A65" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="19">
-      <c r="A62" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="45">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="19">
       <c r="A66" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19">
       <c r="A70" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="45">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="19">
       <c r="A74" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1710,188 +1739,188 @@
         <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="30">
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="45">
       <c r="A77" t="s">
         <v>68</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19">
+      <c r="A78" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="19">
-      <c r="A78" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="19">
       <c r="A82" s="5" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="225">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="19">
       <c r="A86" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="225">
+      <c r="A89" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="210">
-      <c r="A89" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="19">
       <c r="A90" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="210">
+      <c r="A93" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19">
+      <c r="A94" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="23">
-      <c r="A94" s="3" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="23">
+      <c r="A98" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19">
-      <c r="A95" s="4" t="s">
+    <row r="99" spans="1:2" ht="19">
+      <c r="A99" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30">
-      <c r="A96" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30">
-      <c r="A98" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="19">
-      <c r="A99" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="30">
       <c r="A100" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1899,7 +1928,7 @@
         <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30">
@@ -1907,12 +1936,12 @@
         <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="19">
       <c r="A103" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1920,15 +1949,15 @@
         <v>79</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
@@ -1936,75 +1965,104 @@
         <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="23">
-      <c r="A107" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B107" s="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="19">
+      <c r="A107" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B108" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="23">
       <c r="A111" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="19">
-      <c r="A112" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B113" t="s">
-        <v>157</v>
+        <v>124</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="23">
+      <c r="A115" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19">
+      <c r="A116" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
         <v>158</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="119" spans="1:2" ht="150">
+      <c r="A119" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="150">
-      <c r="A115" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
+    <hyperlink ref="B113" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
